--- a/biology/Zoologie/Conodontophorida/Conodontophorida.xlsx
+++ b/biology/Zoologie/Conodontophorida/Conodontophorida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Conodontophorida sont un  ordre éteint de conodontes. Les différentes espèces ont été trouvées dans des terrains datant du Cambrien (-520 Ma) au Trias.
-Certains auteurs considèrent le terme comme un synonyme de Conodonta. C'est un synonyme d'Euconodonta (ou conodontes vrais), au sens de Lindström, 1970[3]. Il semble être une sorte de taxon poubelle pour stocker des genres dont l'allocation à une famille est difficile.
+Certains auteurs considèrent le terme comme un synonyme de Conodonta. C'est un synonyme d'Euconodonta (ou conodontes vrais), au sens de Lindström, 1970. Il semble être une sorte de taxon poubelle pour stocker des genres dont l'allocation à une famille est difficile.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon IRMNG:
 † Belodontidae
